--- a/VersionRecords/Version 3.3.0.1/版本Bug和特性计划及评审表v3.3.0.1_捷豹组.xlsx
+++ b/VersionRecords/Version 3.3.0.1/版本Bug和特性计划及评审表v3.3.0.1_捷豹组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -229,6 +229,29 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>fang'd</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加字段cntr_salecontract_szl</t>
+    <rPh sb="0" eb="1">
+      <t>xin'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'duan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化数据</t>
+    <rPh sb="0" eb="1">
+      <t>chu'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'j</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1509,7 +1532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,6 +1639,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2316,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2454,7 +2480,7 @@
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -2500,8 +2526,12 @@
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="18"/>
+      <c r="R3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version 3.3.0.1/版本Bug和特性计划及评审表v3.3.0.1_捷豹组.xlsx
+++ b/VersionRecords/Version 3.3.0.1/版本Bug和特性计划及评审表v3.3.0.1_捷豹组.xlsx
@@ -243,7 +243,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>初始化数据</t>
+    <t>初始化数据init confirmDate_ybq</t>
     <rPh sb="0" eb="1">
       <t>chu'shi</t>
     </rPh>
@@ -483,7 +483,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="351">
+  <cellStyleXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1531,6 +1531,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1645,7 +1663,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="351">
+  <cellStyles count="357">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -1824,6 +1842,9 @@
     <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -1997,6 +2018,9 @@
     <cellStyle name="已访问的超链接" xfId="346" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="348" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="356" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2343,7 +2367,7 @@
   <dimension ref="A1:T209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2447,17 +2471,17 @@
         <v>15</v>
       </c>
       <c r="F2" s="35">
-        <v>42533</v>
+        <v>42551</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="35">
-        <v>42533</v>
+        <v>42551</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>32</v>
@@ -2469,7 +2493,7 @@
         <v>36</v>
       </c>
       <c r="N2" s="35">
-        <v>42534</v>
+        <v>42551</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>34</v>
@@ -2497,17 +2521,17 @@
         <v>30</v>
       </c>
       <c r="F3" s="35">
-        <v>42533</v>
+        <v>42551</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="35">
-        <v>42535</v>
+        <v>42551</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>32</v>
@@ -2519,7 +2543,7 @@
         <v>36</v>
       </c>
       <c r="N3" s="35">
-        <v>42534</v>
+        <v>42551</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>34</v>
